--- a/experimental-script/combinations-latin-square-design.xlsx
+++ b/experimental-script/combinations-latin-square-design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/esperanza_badaya_ugent_be/Documents/Proj - Horse Race/horse-race-task/experimental-script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_CFD103EA2F2AE03BCDA78243B2A9E061E74FFAB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F01DE2CF-D11D-46E8-AAAE-13C38DE2ECD6}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_CFD103EA2F2AE03BCDA78243B2A9E061E74FFAB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4003612-B3FF-405E-BE0A-69172CCEDDC7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Combinations" sheetId="1" r:id="rId1"/>
     <sheet name="Combos audio validation" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Combos audio validation'!$A$1:$AE$98</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -254,6 +257,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4190,10 +4197,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE97"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -4231,12 +4239,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -4245,35 +4253,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4288,52 +4296,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <f>D3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D70" si="0">D3+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D5+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4344,56 +4352,56 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>D6+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <f>D7+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <f>D8+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>D9+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -4404,56 +4412,56 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>D10+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>D11+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>D12+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f>D13+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -4464,68 +4472,68 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f>D14+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <f>D15+1</f>
+        <v>5</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <f>D16+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f>D17+1</f>
         <v>5</v>
       </c>
       <c r="AC21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4536,7 +4544,7 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f>D18+1</f>
         <v>6</v>
       </c>
       <c r="AC22" t="s">
@@ -4548,56 +4556,56 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <f>D19+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <f>D20+1</f>
+        <v>6</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+        <f>D21+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -4608,56 +4616,56 @@
         <v>27</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <f>D22+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <f>D23+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+        <f>D24+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+        <f>D25+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4668,56 +4676,56 @@
         <v>27</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f>D26+1</f>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f>D27+1</f>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <f>D28+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f>D29+1</f>
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -4728,56 +4736,56 @@
         <v>27</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f>D30+1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f>D31+1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f>D32+1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f>D33+1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4788,56 +4796,56 @@
         <v>27</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f>D34+1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
       <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <f>D35+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
         <v>27</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
+      <c r="D40">
+        <f>D36+1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>46</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f>D37+1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -4848,56 +4856,56 @@
         <v>27</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f>D38+1</f>
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f>D39+1</f>
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <f>D40+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
         <v>27</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
+      <c r="D45">
+        <f>D41+1</f>
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -4908,56 +4916,56 @@
         <v>27</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f>D42+1</f>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47">
+        <f>D43+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>43</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f>D44+1</f>
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f>D45+1</f>
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4968,56 +4976,56 @@
         <v>26</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f>D46+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f>D47+1</f>
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <f>D48+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>44</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f>D49+1</f>
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5028,56 +5036,56 @@
         <v>26</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f>D50+1</f>
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <f>D51+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>43</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>47</v>
-      </c>
-      <c r="C55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f>D52+1</f>
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f>D53+1</f>
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5088,56 +5096,56 @@
         <v>26</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f>D54+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
         <v>46</v>
       </c>
       <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <f>D55+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
+      <c r="D60">
+        <f>D56+1</f>
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>45</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>47</v>
-      </c>
-      <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" t="s">
-        <v>46</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f>D57+1</f>
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5148,56 +5156,56 @@
         <v>26</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f>D58+1</f>
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f>D59+1</f>
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f>D60+1</f>
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f>D61+1</f>
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -5208,56 +5216,56 @@
         <v>26</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D62+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67">
+        <f>D63+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>43</v>
-      </c>
-      <c r="B67" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>45</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D64+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D65+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -5268,56 +5276,56 @@
         <v>26</v>
       </c>
       <c r="D70">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D66+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:D97" si="1">D67+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D67+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
       </c>
       <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <f>D68+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
         <v>26</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" t="s">
-        <v>27</v>
-      </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D69+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -5328,56 +5336,56 @@
         <v>27</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f>D70+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75">
+        <f>D71+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>43</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>47</v>
-      </c>
-      <c r="C75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" t="s">
-        <v>46</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D72+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
         <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D73+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -5388,56 +5396,56 @@
         <v>27</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D74+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D75+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <f>D76+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>45</v>
-      </c>
-      <c r="B80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>44</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D77+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -5448,56 +5456,56 @@
         <v>27</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f>D78+1</f>
         <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
         <v>46</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f>D79+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f>D80+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f>D81+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -5508,56 +5516,56 @@
         <v>27</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f>D82+1</f>
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
         <v>46</v>
       </c>
       <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <f>D83+1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" t="s">
         <v>27</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="1"/>
+      <c r="D88">
+        <f>D84+1</f>
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>45</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>47</v>
-      </c>
-      <c r="C88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" t="s">
-        <v>46</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
+        <f>D85+1</f>
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -5568,56 +5576,56 @@
         <v>27</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
+        <f>D86+1</f>
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
+        <f>D87+1</f>
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
         <v>46</v>
       </c>
       <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92">
+        <f>D88+1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" t="s">
         <v>27</v>
       </c>
-      <c r="D92">
-        <f t="shared" si="1"/>
+      <c r="D93">
+        <f>D89+1</f>
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -5628,67 +5636,88 @@
         <v>27</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
+        <f>D90+1</f>
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95">
+        <f>D91+1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>43</v>
-      </c>
-      <c r="B95" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>45</v>
       </c>
       <c r="B96" t="s">
         <v>46</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f>D92+1</f>
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f>D93+1</f>
         <v>24</v>
       </c>
     </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:AE98" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="blackblade"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="native"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="disfluent"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE97">
+    <sortCondition ref="D2:D97"/>
+    <sortCondition ref="A2:A97"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="05efa9cf-989c-4862-ab12-87db54977566" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5921,17 +5950,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="05efa9cf-989c-4862-ab12-87db54977566" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D1BB50E-8517-47E6-A9EE-315264915E09}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5543A7B-A444-4935-956A-046B167CE6E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="93d843a3-9569-434c-b1da-bf02a65c4fcc"/>
+    <ds:schemaRef ds:uri="05efa9cf-989c-4862-ab12-87db54977566"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5956,18 +5995,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5543A7B-A444-4935-956A-046B167CE6E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D1BB50E-8517-47E6-A9EE-315264915E09}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="93d843a3-9569-434c-b1da-bf02a65c4fcc"/>
-    <ds:schemaRef ds:uri="05efa9cf-989c-4862-ab12-87db54977566"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/experimental-script/combinations-latin-square-design.xlsx
+++ b/experimental-script/combinations-latin-square-design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/esperanza_badaya_ugent_be/Documents/Proj - Horse Race/horse-race-task/experimental-script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_CFD103EA2F2AE03BCDA78243B2A9E061E74FFAB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4003612-B3FF-405E-BE0A-69172CCEDDC7}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_CFD103EA2F2AE03BCDA78243B2A9E061E74FFAB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0F8449-4D66-40A8-A940-5A1C70318C52}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combinations" sheetId="1" r:id="rId1"/>
@@ -257,10 +257,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4197,11 +4193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE98"/>
+  <dimension ref="A1:AE97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G2" sqref="G2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4211,7 +4206,7 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4225,7 +4220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -4238,8 +4233,21 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -4252,8 +4260,21 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <f>D3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4266,8 +4287,21 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <f>D4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4280,68 +4314,21 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <f>D2+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <f>D3+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
-        <f>D4+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
+      <c r="J5">
         <f>D5+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4352,11 +4339,11 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <f>D6+1</f>
+        <f>J2+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -4367,11 +4354,11 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <f>D7+1</f>
+        <f>J3+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -4382,11 +4369,11 @@
         <v>26</v>
       </c>
       <c r="D12">
-        <f>D8+1</f>
+        <f>J4+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -4397,11 +4384,11 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <f>D9+1</f>
+        <f>J5+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -4412,11 +4399,11 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <f>D10+1</f>
+        <f t="shared" ref="D6:D37" si="0">D10+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4427,11 +4414,11 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <f>D11+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -4442,11 +4429,11 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <f>D12+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -4457,11 +4444,11 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <f>D13+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -4472,7 +4459,7 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <f>D14+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -4487,7 +4474,7 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <f>D15+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AC19" t="s">
@@ -4497,7 +4484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -4508,11 +4495,11 @@
         <v>26</v>
       </c>
       <c r="D20">
-        <f>D16+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -4523,7 +4510,7 @@
         <v>27</v>
       </c>
       <c r="D21">
-        <f>D17+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AC21" t="s">
@@ -4533,7 +4520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4544,7 +4531,7 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <f>D18+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AC22" t="s">
@@ -4565,11 +4552,11 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <f>D19+1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -4580,7 +4567,7 @@
         <v>27</v>
       </c>
       <c r="D24">
-        <f>D20+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AC24" t="s">
@@ -4590,7 +4577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4601,11 +4588,11 @@
         <v>26</v>
       </c>
       <c r="D25">
-        <f>D21+1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -4616,11 +4603,11 @@
         <v>27</v>
       </c>
       <c r="D26">
-        <f>D22+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -4631,11 +4618,11 @@
         <v>27</v>
       </c>
       <c r="D27">
-        <f>D23+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -4646,11 +4633,11 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <f>D24+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -4661,11 +4648,11 @@
         <v>26</v>
       </c>
       <c r="D29">
-        <f>D25+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4676,11 +4663,11 @@
         <v>27</v>
       </c>
       <c r="D30">
-        <f>D26+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -4691,11 +4678,11 @@
         <v>26</v>
       </c>
       <c r="D31">
-        <f>D27+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -4706,11 +4693,11 @@
         <v>26</v>
       </c>
       <c r="D32">
-        <f>D28+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -4721,11 +4708,11 @@
         <v>27</v>
       </c>
       <c r="D33">
-        <f>D29+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -4736,11 +4723,11 @@
         <v>27</v>
       </c>
       <c r="D34">
-        <f>D30+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4751,11 +4738,11 @@
         <v>27</v>
       </c>
       <c r="D35">
-        <f>D31+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4766,11 +4753,11 @@
         <v>26</v>
       </c>
       <c r="D36">
-        <f>D32+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -4781,11 +4768,11 @@
         <v>26</v>
       </c>
       <c r="D37">
-        <f>D33+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4796,11 +4783,11 @@
         <v>27</v>
       </c>
       <c r="D38">
-        <f>D34+1</f>
+        <f t="shared" ref="D38:D69" si="1">D34+1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4811,11 +4798,11 @@
         <v>26</v>
       </c>
       <c r="D39">
-        <f>D35+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -4826,11 +4813,11 @@
         <v>27</v>
       </c>
       <c r="D40">
-        <f>D36+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4841,11 +4828,11 @@
         <v>26</v>
       </c>
       <c r="D41">
-        <f>D37+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -4856,11 +4843,11 @@
         <v>27</v>
       </c>
       <c r="D42">
-        <f>D38+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4871,11 +4858,11 @@
         <v>26</v>
       </c>
       <c r="D43">
-        <f>D39+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4886,11 +4873,11 @@
         <v>26</v>
       </c>
       <c r="D44">
-        <f>D40+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -4901,11 +4888,11 @@
         <v>27</v>
       </c>
       <c r="D45">
-        <f>D41+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -4916,11 +4903,11 @@
         <v>27</v>
       </c>
       <c r="D46">
-        <f>D42+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -4931,11 +4918,11 @@
         <v>26</v>
       </c>
       <c r="D47">
-        <f>D43+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -4946,11 +4933,11 @@
         <v>27</v>
       </c>
       <c r="D48">
-        <f>D44+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -4961,11 +4948,11 @@
         <v>26</v>
       </c>
       <c r="D49">
-        <f>D45+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4976,7 +4963,7 @@
         <v>26</v>
       </c>
       <c r="D50">
-        <f>D46+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -4991,11 +4978,11 @@
         <v>27</v>
       </c>
       <c r="D51">
-        <f>D47+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -5006,11 +4993,11 @@
         <v>27</v>
       </c>
       <c r="D52">
-        <f>D48+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5021,11 +5008,11 @@
         <v>26</v>
       </c>
       <c r="D53">
-        <f>D49+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5036,11 +5023,11 @@
         <v>26</v>
       </c>
       <c r="D54">
-        <f>D50+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -5051,11 +5038,11 @@
         <v>26</v>
       </c>
       <c r="D55">
-        <f>D51+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -5066,11 +5053,11 @@
         <v>27</v>
       </c>
       <c r="D56">
-        <f>D52+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -5081,11 +5068,11 @@
         <v>27</v>
       </c>
       <c r="D57">
-        <f>D53+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5096,7 +5083,7 @@
         <v>26</v>
       </c>
       <c r="D58">
-        <f>D54+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -5111,11 +5098,11 @@
         <v>27</v>
       </c>
       <c r="D59">
-        <f>D55+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -5126,11 +5113,11 @@
         <v>26</v>
       </c>
       <c r="D60">
-        <f>D56+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -5141,11 +5128,11 @@
         <v>27</v>
       </c>
       <c r="D61">
-        <f>D57+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -5156,11 +5143,11 @@
         <v>26</v>
       </c>
       <c r="D62">
-        <f>D58+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -5171,11 +5158,11 @@
         <v>26</v>
       </c>
       <c r="D63">
-        <f>D59+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5186,11 +5173,11 @@
         <v>27</v>
       </c>
       <c r="D64">
-        <f>D60+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -5201,11 +5188,11 @@
         <v>27</v>
       </c>
       <c r="D65">
-        <f>D61+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -5216,11 +5203,11 @@
         <v>26</v>
       </c>
       <c r="D66">
-        <f>D62+1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -5231,11 +5218,11 @@
         <v>27</v>
       </c>
       <c r="D67">
-        <f>D63+1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -5246,11 +5233,11 @@
         <v>26</v>
       </c>
       <c r="D68">
-        <f>D64+1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -5261,11 +5248,11 @@
         <v>27</v>
       </c>
       <c r="D69">
-        <f>D65+1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -5276,11 +5263,11 @@
         <v>26</v>
       </c>
       <c r="D70">
-        <f>D66+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D70:D101" si="2">D66+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -5291,11 +5278,11 @@
         <v>27</v>
       </c>
       <c r="D71">
-        <f>D67+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -5306,11 +5293,11 @@
         <v>27</v>
       </c>
       <c r="D72">
-        <f>D68+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -5321,11 +5308,11 @@
         <v>26</v>
       </c>
       <c r="D73">
-        <f>D69+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -5336,7 +5323,7 @@
         <v>27</v>
       </c>
       <c r="D74">
-        <f>D70+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -5351,11 +5338,11 @@
         <v>27</v>
       </c>
       <c r="D75">
-        <f>D71+1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -5366,11 +5353,11 @@
         <v>26</v>
       </c>
       <c r="D76">
-        <f>D72+1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -5381,11 +5368,11 @@
         <v>26</v>
       </c>
       <c r="D77">
-        <f>D73+1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -5396,11 +5383,11 @@
         <v>27</v>
       </c>
       <c r="D78">
-        <f>D74+1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>44</v>
       </c>
@@ -5411,11 +5398,11 @@
         <v>26</v>
       </c>
       <c r="D79">
-        <f>D75+1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -5426,11 +5413,11 @@
         <v>26</v>
       </c>
       <c r="D80">
-        <f>D76+1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -5441,11 +5428,11 @@
         <v>27</v>
       </c>
       <c r="D81">
-        <f>D77+1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -5456,7 +5443,7 @@
         <v>27</v>
       </c>
       <c r="D82">
-        <f>D78+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
@@ -5471,11 +5458,11 @@
         <v>27</v>
       </c>
       <c r="D83">
-        <f>D79+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -5486,11 +5473,11 @@
         <v>26</v>
       </c>
       <c r="D84">
-        <f>D80+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -5501,11 +5488,11 @@
         <v>26</v>
       </c>
       <c r="D85">
-        <f>D81+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -5516,11 +5503,11 @@
         <v>27</v>
       </c>
       <c r="D86">
-        <f>D82+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -5531,11 +5518,11 @@
         <v>26</v>
       </c>
       <c r="D87">
-        <f>D83+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -5546,11 +5533,11 @@
         <v>27</v>
       </c>
       <c r="D88">
-        <f>D84+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -5561,11 +5548,11 @@
         <v>26</v>
       </c>
       <c r="D89">
-        <f>D85+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -5576,11 +5563,11 @@
         <v>27</v>
       </c>
       <c r="D90">
-        <f>D86+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -5591,11 +5578,11 @@
         <v>26</v>
       </c>
       <c r="D91">
-        <f>D87+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -5606,11 +5593,11 @@
         <v>26</v>
       </c>
       <c r="D92">
-        <f>D88+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -5621,11 +5608,11 @@
         <v>27</v>
       </c>
       <c r="D93">
-        <f>D89+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -5636,11 +5623,11 @@
         <v>27</v>
       </c>
       <c r="D94">
-        <f>D90+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -5651,11 +5638,11 @@
         <v>26</v>
       </c>
       <c r="D95">
-        <f>D91+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>43</v>
       </c>
@@ -5666,11 +5653,11 @@
         <v>27</v>
       </c>
       <c r="D96">
-        <f>D92+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -5681,29 +5668,11 @@
         <v>26</v>
       </c>
       <c r="D97">
-        <f>D93+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AE98" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="blackblade"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="native"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="disfluent"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE97">
     <sortCondition ref="D2:D97"/>
     <sortCondition ref="A2:A97"/>
@@ -5713,11 +5682,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="05efa9cf-989c-4862-ab12-87db54977566" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5950,27 +5920,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="05efa9cf-989c-4862-ab12-87db54977566" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5543A7B-A444-4935-956A-046B167CE6E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D1BB50E-8517-47E6-A9EE-315264915E09}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="93d843a3-9569-434c-b1da-bf02a65c4fcc"/>
-    <ds:schemaRef ds:uri="05efa9cf-989c-4862-ab12-87db54977566"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5995,9 +5955,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D1BB50E-8517-47E6-A9EE-315264915E09}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5543A7B-A444-4935-956A-046B167CE6E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="93d843a3-9569-434c-b1da-bf02a65c4fcc"/>
+    <ds:schemaRef ds:uri="05efa9cf-989c-4862-ab12-87db54977566"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>